--- a/results/pvalue_SIDER_all_indication_AUPR.xlsx
+++ b/results/pvalue_SIDER_all_indication_AUPR.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.073</t>
+          <t>0.763</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16.593</t>
+          <t>15.242</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16.738</t>
+          <t>15.13</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14.953</t>
+          <t>13.191</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>-0.322</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10.085</t>
+          <t>14.22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
